--- a/results/mp/tinybert/toy-spam/confidence/42/stop-words-masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/42/stop-words-masking-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,34 +46,40 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
+    <t>junk</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
+    <t>broken</t>
+  </si>
+  <si>
     <t>plastic</t>
   </si>
   <si>
-    <t>broken</t>
+    <t>ok</t>
   </si>
   <si>
     <t>cheap</t>
@@ -82,9 +88,6 @@
     <t>apart</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>difficult</t>
   </si>
   <si>
@@ -97,6 +100,12 @@
     <t>hard</t>
   </si>
   <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
@@ -109,30 +118,18 @@
     <t>price</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>use</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
-    <t>toy</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
@@ -151,12 +148,12 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>classic</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>classic</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
@@ -178,22 +175,19 @@
     <t>friends</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
     <t>game</t>
-  </si>
-  <si>
-    <t>play</t>
   </si>
   <si>
     <t>positive</t>
@@ -554,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -562,10 +556,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -623,13 +617,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -641,10 +635,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K3">
         <v>0.8928571428571429</v>
@@ -694,16 +688,16 @@
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K4">
-        <v>0.8461538461538461</v>
+        <v>0.8307692307692308</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -715,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -723,13 +717,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7183098591549296</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C5">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -741,19 +735,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K5">
-        <v>0.8172043010752689</v>
+        <v>0.7956989247311828</v>
       </c>
       <c r="L5">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M5">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -765,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -773,13 +767,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6827956989247311</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="C6">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="D6">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -791,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K6">
-        <v>0.71875</v>
+        <v>0.78125</v>
       </c>
       <c r="L6">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M6">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -815,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -844,16 +838,16 @@
         <v>21</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K7">
-        <v>0.6521739130434783</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L7">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="M7">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -865,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -873,13 +867,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6351351351351351</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C8">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="D8">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -891,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K8">
-        <v>0.6226415094339622</v>
+        <v>0.6231884057971014</v>
       </c>
       <c r="L8">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="M8">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -915,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -923,13 +917,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6019417475728155</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="C9">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="D9">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -941,19 +935,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K9">
-        <v>0.563845050215208</v>
+        <v>0.5437589670014347</v>
       </c>
       <c r="L9">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="M9">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -965,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>304</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -973,13 +967,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5546218487394958</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="C10">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="D10">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -991,19 +985,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K10">
-        <v>0.4688796680497925</v>
+        <v>0.479253112033195</v>
       </c>
       <c r="L10">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="M10">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1015,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1023,13 +1017,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5454545454545454</v>
+        <v>0.6067961165048543</v>
       </c>
       <c r="C11">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="D11">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1041,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K11">
-        <v>0.4565573770491803</v>
+        <v>0.4491803278688525</v>
       </c>
       <c r="L11">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="M11">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1065,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>663</v>
+        <v>672</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1073,13 +1067,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5014492753623189</v>
+        <v>0.5966386554621849</v>
       </c>
       <c r="C12">
-        <v>173</v>
+        <v>71</v>
       </c>
       <c r="D12">
-        <v>173</v>
+        <v>71</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1091,19 +1085,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>172</v>
+        <v>48</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K12">
-        <v>0.3486238532110092</v>
+        <v>0.3577981651376147</v>
       </c>
       <c r="L12">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M12">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1115,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1123,13 +1117,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4409448818897638</v>
+        <v>0.5072463768115942</v>
       </c>
       <c r="C13">
-        <v>56</v>
+        <v>175</v>
       </c>
       <c r="D13">
-        <v>56</v>
+        <v>175</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1141,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>71</v>
+        <v>170</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K13">
-        <v>0.3166666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L13">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M13">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1165,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1173,13 +1167,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4337349397590362</v>
+        <v>0.4216867469879518</v>
       </c>
       <c r="C14">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1191,19 +1185,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K14">
-        <v>0.3012048192771085</v>
+        <v>0.3192771084337349</v>
       </c>
       <c r="L14">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M14">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1215,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1223,13 +1217,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3981042654028436</v>
+        <v>0.4015748031496063</v>
       </c>
       <c r="C15">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="D15">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1241,19 +1235,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K15">
-        <v>0.291005291005291</v>
+        <v>0.3121693121693122</v>
       </c>
       <c r="L15">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M15">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1265,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1273,13 +1267,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3894736842105263</v>
+        <v>0.390625</v>
       </c>
       <c r="C16">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D16">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1291,19 +1285,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K16">
-        <v>0.2008032128514056</v>
+        <v>0.2027972027972028</v>
       </c>
       <c r="L16">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="M16">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1315,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>199</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1323,13 +1317,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.359375</v>
+        <v>0.3696682464454976</v>
       </c>
       <c r="C17">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="D17">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1341,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K17">
-        <v>0.1989247311827957</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="L17">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M17">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1365,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1373,13 +1367,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3258426966292135</v>
+        <v>0.3473684210526316</v>
       </c>
       <c r="C18">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D18">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1391,31 +1385,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K18">
-        <v>0.156140350877193</v>
+        <v>0.1686746987951807</v>
       </c>
       <c r="L18">
-        <v>178</v>
+        <v>42</v>
       </c>
       <c r="M18">
-        <v>179</v>
+        <v>42</v>
       </c>
       <c r="N18">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>962</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1423,13 +1417,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2821782178217822</v>
+        <v>0.3258426966292135</v>
       </c>
       <c r="C19">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="D19">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1441,31 +1435,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>145</v>
+        <v>60</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K19">
-        <v>0.09090909090909091</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="L19">
-        <v>34</v>
+        <v>180</v>
       </c>
       <c r="M19">
-        <v>34</v>
+        <v>181</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>340</v>
+        <v>960</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1473,13 +1467,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2422680412371134</v>
+        <v>0.301980198019802</v>
       </c>
       <c r="C20">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="D20">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1491,31 +1485,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K20">
-        <v>0.07597402597402597</v>
+        <v>0.0792722547108512</v>
       </c>
       <c r="L20">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="M20">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="N20">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="O20">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>1423</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1523,7 +1517,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.195</v>
+        <v>0.2010309278350516</v>
       </c>
       <c r="C21">
         <v>39</v>
@@ -1541,31 +1535,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>161</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K21">
-        <v>0.04266666666666667</v>
-      </c>
-      <c r="L21">
-        <v>32</v>
-      </c>
-      <c r="M21">
-        <v>34</v>
-      </c>
-      <c r="N21">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O21">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P21" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q21">
-        <v>718</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1573,13 +1543,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1920289855072464</v>
+        <v>0.175</v>
       </c>
       <c r="C22">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D22">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1591,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>223</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1599,25 +1569,25 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1708860759493671</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="C23">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D23">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1625,25 +1595,25 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1682242990654206</v>
+        <v>0.1711309523809524</v>
       </c>
       <c r="C24">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="D24">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>178</v>
+        <v>557</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1651,13 +1621,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1609195402298851</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C25">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D25">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1669,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>292</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1677,25 +1647,25 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1604754829123329</v>
+        <v>0.1645569620253164</v>
       </c>
       <c r="C26">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="D26">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="E26">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>565</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1703,13 +1673,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1582278481012658</v>
+        <v>0.1448598130841121</v>
       </c>
       <c r="C27">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D27">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1721,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>266</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1729,25 +1699,25 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1167400881057269</v>
+        <v>0.1440922190201729</v>
       </c>
       <c r="C28">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D28">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>401</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1755,25 +1725,25 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.0821917808219178</v>
+        <v>0.1280353200883002</v>
       </c>
       <c r="C29">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D29">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>335</v>
+        <v>395</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1781,25 +1751,25 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.08169014084507042</v>
+        <v>0.08258928571428571</v>
       </c>
       <c r="C30">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D30">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>326</v>
+        <v>411</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1807,13 +1777,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.07589285714285714</v>
+        <v>0.07967032967032966</v>
       </c>
       <c r="C31">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D31">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E31">
         <v>0.03</v>
@@ -1825,7 +1795,7 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>414</v>
+        <v>335</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1833,13 +1803,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.06930693069306931</v>
+        <v>0.06765676567656766</v>
       </c>
       <c r="C32">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D32">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E32">
         <v>0.05</v>
@@ -1851,7 +1821,7 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1859,51 +1829,25 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.04900459418070444</v>
+        <v>0.0457433290978399</v>
       </c>
       <c r="C33">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D33">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E33">
-        <v>0.06</v>
+        <v>0.16</v>
       </c>
       <c r="F33">
-        <v>0.9399999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34">
-        <v>0.03703703703703703</v>
-      </c>
-      <c r="C34">
-        <v>29</v>
-      </c>
-      <c r="D34">
-        <v>40</v>
-      </c>
-      <c r="E34">
-        <v>0.28</v>
-      </c>
-      <c r="F34">
-        <v>0.72</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
   </sheetData>
